--- a/data/trans_bre/P25_11-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_11-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,03</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>259,08%</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>354,2%</t>
+          <t>164,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>278,74%</t>
+          <t>243,2%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>261,6%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>96,83%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 13,11</t>
+          <t>1,81; 12,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 15,41</t>
+          <t>4,83; 16,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 13,57</t>
+          <t>4,39; 14,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,05; 721,85</t>
+          <t>-0,3; 13,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>147,63; 1000,09</t>
+          <t>10,66; 580,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,51; 680,23</t>
+          <t>52,5; 698,21</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>65,76; 858,07</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 298,25</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>29,78%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>47,55%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 8,07</t>
+          <t>-5,31; 6,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 7,65</t>
+          <t>-3,9; 5,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 8,08</t>
+          <t>-3,9; 7,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 231,54</t>
+          <t>-3,77; 10,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 390,56</t>
+          <t>-53,45; 183,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 209,93</t>
+          <t>-63,61; 300,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-45,39; 232,81</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-36,0; 232,32</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>-3,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,62%</t>
+          <t>26,97%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-18,18%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-45,03%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 10,83</t>
+          <t>-13,15; 11,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 9,69</t>
+          <t>-15,02; 15,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 7,33</t>
+          <t>-18,85; 12,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-24,73; 8,42</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-77,34; 314,24</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-86,78; 368,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>124,25%</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>173,38%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>109,89%</t>
+          <t>124,96%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>98,81%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57,84%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,34</t>
+          <t>-0,41; 7,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,33</t>
+          <t>2,17; 9,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 8,74</t>
+          <t>0,73; 8,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,95; 257,61</t>
+          <t>0,08; 9,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,99; 366,21</t>
+          <t>-6,79; 192,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 238,45</t>
+          <t>33,38; 307,25</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 237,94</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 155,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_11-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_11-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,33</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>164,15%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>243,2%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>261,6%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>96,83%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.954389137839357</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.59855328059613</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.602481337797766</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.251185965235598</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.867580556205602</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.696544811555612</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.745773368853374</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9850520694200081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 12,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,83; 16,69</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,39; 14,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 13,5</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10,66; 580,31</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>52,5; 698,21</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>65,76; 858,07</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 298,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.450396232100039</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>5.23899215656517</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.523901426185616</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4210252560802745</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.1331009405183178</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.6219594498519651</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.7128108458755915</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.05780045769931799</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.06699927310472</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.3678405893727</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.67992552743464</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.58429016899802</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>6.278737529582243</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>7.505213252065317</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>9.012058792713797</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.1048364420805</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>29,78%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>27,68%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>47,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,31; 6,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 5,89</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 7,35</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; 10,48</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-53,45; 183,79</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-63,61; 300,95</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-45,39; 232,81</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-36,0; 232,32</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.553216344866117</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9182286103821914</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.9379908178660203</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.23504170641384</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.0723567424431676</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1868623743378104</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1593754099329436</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5751123642234496</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,92</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,08%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>26,97%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-18,18%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-45,03%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.295291220713406</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.493227403724402</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.674368567358487</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.02028700232157</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.7005659370141876</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7388987084767964</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5295857147672414</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3300816701476926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,15; 11,95</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,02; 15,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,85; 12,52</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-24,73; 8,42</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.055336503541483</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.955308048237792</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.84234416239967</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.67531201036273</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.219683174742284</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.854576715750964</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.048862461790793</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.667160521630121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,75</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>66,29%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>124,96%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>98,81%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>57,84%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.3096196793013644</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.835828655785235</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.516949154720981</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.980908109216706</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.05320428570587279</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4796752349314344</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.2430834892997507</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3853002395188779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 7,12</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 9,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 8,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 9,12</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,79; 192,03</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>33,38; 307,25</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>9,13; 237,94</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 155,85</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.72238823403888</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.24454286560433</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-19.72761893811863</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-23.02650012226608</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.68783801645266</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.10482577076236</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.82797735699215</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.16444464952855</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.726360470143341</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.01010790056025</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.751062144553366</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.862545092264109</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.6384627688796309</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.259555636597567</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9058524011548118</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6307437060501594</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.9871547293699885</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.835083509103449</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.4874992697630182</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.35549862364725</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1542082791528974</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.2650717592771233</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.04240121427967812</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.007497308977172693</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.881995025652246</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.695793143475633</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.405351035964015</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.643687448009596</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.977619828312072</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.225382051410065</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.325348547393711</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.65049375034157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1011,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
